--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.595941430355726</v>
+        <v>4.5959414294679011</v>
       </c>
       <c r="C2">
-        <v>4.7271781315526349</v>
+        <v>4.7271781315484516</v>
       </c>
       <c r="D2">
-        <v>4.4249589958904423</v>
+        <v>4.4249589991270994</v>
       </c>
       <c r="E2">
-        <v>1.8442787841253065</v>
+        <v>1.8442787864657473</v>
       </c>
       <c r="F2">
-        <v>4.1957791846222934</v>
+        <v>4.1957791886671689</v>
       </c>
       <c r="G2">
-        <v>7.2043570541139328</v>
+        <v>7.2043570552339329</v>
       </c>
       <c r="H2">
-        <v>2.4610391224896144</v>
+        <v>2.4610391239155955</v>
       </c>
       <c r="I2">
-        <v>3.9452090552587902</v>
+        <v>3.9452090559471324</v>
       </c>
       <c r="J2">
-        <v>5.0325890141515544</v>
+        <v>5.0325890166918024</v>
       </c>
       <c r="K2">
-        <v>5.437628704396551</v>
+        <v>5.4376287070017479</v>
       </c>
       <c r="L2">
-        <v>7.2115743477590257</v>
+        <v>7.2115743469498517</v>
       </c>
       <c r="M2">
-        <v>7.5559908535325748</v>
+        <v>7.5559908528571471</v>
       </c>
       <c r="N2">
-        <v>4.209620564413596</v>
+        <v>4.2096205646375324</v>
       </c>
       <c r="O2">
-        <v>2.6491084687579041</v>
+        <v>2.6491084731683214</v>
       </c>
       <c r="P2">
-        <v>3.8752008647445413</v>
+        <v>3.8752008644651483</v>
       </c>
       <c r="Q2">
-        <v>8.5028593920377578</v>
+        <v>8.5028593932402448</v>
       </c>
       <c r="R2">
-        <v>5.7011946515882057</v>
+        <v>5.7011946562634641</v>
       </c>
       <c r="S2">
-        <v>2.754891215588203</v>
+        <v>2.7548912118157625</v>
       </c>
       <c r="T2">
-        <v>2.4481339464765326</v>
+        <v>2.4481339447948853</v>
       </c>
       <c r="U2">
-        <v>6.9577611717845418</v>
+        <v>6.9577611775831425</v>
       </c>
       <c r="V2">
-        <v>4.1807463063650889</v>
+        <v>4.1807463094193453</v>
       </c>
       <c r="W2">
-        <v>5.6977329572101221</v>
+        <v>5.697732959196796</v>
       </c>
       <c r="X2">
-        <v>6.4803607506187788</v>
+        <v>6.4803607510058603</v>
       </c>
       <c r="Y2">
-        <v>1.4645557016876296</v>
+        <v>1.4645557062451604</v>
       </c>
       <c r="Z2">
-        <v>4.4691992195940022</v>
+        <v>4.4691992251059336</v>
       </c>
       <c r="AA2">
-        <v>3.0092795932136465</v>
+        <v>3.0092795973163207</v>
       </c>
       <c r="AB2">
-        <v>4.5277042419848774</v>
+        <v>4.5277042494954856</v>
       </c>
       <c r="AC2">
-        <v>6.4750115275116631</v>
+        <v>6.4750115309886347</v>
       </c>
       <c r="AD2">
-        <v>1.3870890970481198</v>
+        <v>1.3870891059704691</v>
       </c>
       <c r="AE2">
-        <v>4.6514859268372195</v>
+        <v>4.6514859308567535</v>
       </c>
       <c r="AF2">
-        <v>4.2042081141680905</v>
+        <v>4.2042081176817332</v>
       </c>
       <c r="AG2">
-        <v>2.5136831747592288</v>
+        <v>2.5136831785597793</v>
       </c>
       <c r="AH2">
-        <v>2.8150567437457727</v>
+        <v>2.8150567473759347</v>
       </c>
       <c r="AI2">
-        <v>5.248860868446557</v>
+        <v>5.2488608750537535</v>
       </c>
       <c r="AJ2">
-        <v>3.3117031244514474</v>
+        <v>3.3117031275599009</v>
       </c>
       <c r="AK2">
-        <v>4.2796009214032615</v>
+        <v>4.2796009247277809</v>
       </c>
       <c r="AL2">
-        <v>7.5746366160841987</v>
+        <v>7.5746366193960899</v>
       </c>
       <c r="AM2">
-        <v>2.9182415282213485</v>
+        <v>2.9182415310098748</v>
       </c>
       <c r="AN2">
-        <v>3.9411498051979805</v>
+        <v>3.9411498109887768</v>
       </c>
       <c r="AO2">
-        <v>2.3483141070044664</v>
+        <v>2.3483141092472049</v>
       </c>
       <c r="AP2">
-        <v>2.9159860757584095</v>
+        <v>2.9159860809803195</v>
       </c>
       <c r="AQ2">
-        <v>5.4663635451914807</v>
+        <v>5.466363548414007</v>
       </c>
       <c r="AR2">
-        <v>2.6068159097040371</v>
+        <v>2.6068159119703429</v>
       </c>
       <c r="AS2">
-        <v>2.3190774717060445</v>
+        <v>2.3190774762975761</v>
       </c>
       <c r="AT2">
-        <v>4.8324036148425442</v>
+        <v>4.8324036198304086</v>
       </c>
       <c r="AU2">
-        <v>2.1907462531000248</v>
+        <v>2.1907462592782685</v>
       </c>
       <c r="AV2">
-        <v>3.1562411902105758</v>
+        <v>3.1562411961234398</v>
       </c>
       <c r="AW2">
-        <v>5.1033324636538309</v>
+        <v>5.1033324688487118</v>
       </c>
       <c r="AX2">
-        <v>3.0943413723407831</v>
+        <v>3.0943413789162935</v>
       </c>
       <c r="AY2">
-        <v>1.5881416168778331</v>
+        <v>1.5881416220414506</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.0156595963405559</v>
+        <v>5.0156595988574315</v>
       </c>
       <c r="C3">
-        <v>4.7507902193632257</v>
+        <v>4.750790224024894</v>
       </c>
       <c r="D3">
-        <v>3.4221675144717398</v>
+        <v>3.4221675229559052</v>
       </c>
       <c r="E3">
-        <v>3.1156399318228072</v>
+        <v>3.1156399362534204</v>
       </c>
       <c r="F3">
-        <v>3.951034175128544</v>
+        <v>3.9510341786329284</v>
       </c>
       <c r="G3">
-        <v>3.5961152142449793</v>
+        <v>3.5961152165344799</v>
       </c>
       <c r="H3">
-        <v>6.4584287225981933</v>
+        <v>6.4584287246724355</v>
       </c>
       <c r="I3">
-        <v>5.5510372438444042</v>
+        <v>5.5510372457359347</v>
       </c>
       <c r="J3">
-        <v>4.0561481055053168</v>
+        <v>4.05614810692785</v>
       </c>
       <c r="K3">
-        <v>-1.5312294902379127</v>
+        <v>-1.5312294900712751</v>
       </c>
       <c r="L3">
-        <v>3.7393833804597385</v>
+        <v>3.739383382981126</v>
       </c>
       <c r="M3">
-        <v>6.3047980630418694</v>
+        <v>6.3048547985902372</v>
       </c>
       <c r="N3">
-        <v>4.3537757753501332</v>
+        <v>4.3537757785942528</v>
       </c>
       <c r="O3">
-        <v>7.4999307857587478</v>
+        <v>7.4999307875612704</v>
       </c>
       <c r="P3">
-        <v>3.8334029525680928</v>
+        <v>3.833402959652993</v>
       </c>
       <c r="Q3">
-        <v>3.634455098034767</v>
+        <v>3.6344550991970155</v>
       </c>
       <c r="R3">
-        <v>6.3386363200222631</v>
+        <v>6.3386363225090436</v>
       </c>
       <c r="S3">
-        <v>2.9051302997380564</v>
+        <v>2.9051303006494806</v>
       </c>
       <c r="T3">
-        <v>3.3205749769878348</v>
+        <v>3.3205749802712576</v>
       </c>
       <c r="U3">
-        <v>4.4597527682272782</v>
+        <v>4.4597527716014973</v>
       </c>
       <c r="V3">
-        <v>3.2907364023897863</v>
+        <v>3.2907364045232099</v>
       </c>
       <c r="W3">
-        <v>4.6806177656710082</v>
+        <v>4.680617768058247</v>
       </c>
       <c r="X3">
-        <v>7.4305580919319842</v>
+        <v>7.4305580947979344</v>
       </c>
       <c r="Y3">
-        <v>0.91148799200908504</v>
+        <v>0.91148799886645349</v>
       </c>
       <c r="Z3">
-        <v>2.5154669717118985</v>
+        <v>2.5154669778603456</v>
       </c>
       <c r="AA3">
-        <v>2.8300945651800959</v>
+        <v>2.8300945696256239</v>
       </c>
       <c r="AB3">
-        <v>2.8844793487297817</v>
+        <v>2.884479355008704</v>
       </c>
       <c r="AC3">
-        <v>4.1339494746109535</v>
+        <v>4.1339494779659915</v>
       </c>
       <c r="AD3">
-        <v>2.7120277314360934</v>
+        <v>2.7120277362721863</v>
       </c>
       <c r="AE3">
-        <v>2.3777032074239162</v>
+        <v>2.3777032094685868</v>
       </c>
       <c r="AF3">
-        <v>4.9844892057579289</v>
+        <v>4.9844892103590253</v>
       </c>
       <c r="AG3">
-        <v>3.7548941177326127</v>
+        <v>3.7548941203971351</v>
       </c>
       <c r="AH3">
-        <v>4.7404904859943819</v>
+        <v>4.7404904892973327</v>
       </c>
       <c r="AI3">
-        <v>-1.4667135933097071</v>
+        <v>-1.4667135867290622</v>
       </c>
       <c r="AJ3">
-        <v>2.967139971598256</v>
+        <v>2.9671399735004567</v>
       </c>
       <c r="AK3">
-        <v>4.1873058829901595</v>
+        <v>4.1873058886598082</v>
       </c>
       <c r="AL3">
-        <v>4.1501718642400078</v>
+        <v>4.1501718699708636</v>
       </c>
       <c r="AM3">
-        <v>3.1267516488462337</v>
+        <v>3.1267516551427712</v>
       </c>
       <c r="AN3">
-        <v>7.9415298376437553</v>
+        <v>7.9415298405625281</v>
       </c>
       <c r="AO3">
-        <v>3.4682493965324959</v>
+        <v>3.468249407394258</v>
       </c>
       <c r="AP3">
-        <v>4.4171889733641638</v>
+        <v>4.4171889773369815</v>
       </c>
       <c r="AQ3">
-        <v>3.3072077342116137</v>
+        <v>3.3072077399977036</v>
       </c>
       <c r="AR3">
-        <v>2.5578953743328254</v>
+        <v>2.5578953775357669</v>
       </c>
       <c r="AS3">
-        <v>4.0003044731868176</v>
+        <v>4.0003044763299265</v>
       </c>
       <c r="AT3">
-        <v>2.5375381072201213</v>
+        <v>2.5375381148710541</v>
       </c>
       <c r="AU3">
-        <v>3.5856208588527378</v>
+        <v>3.5856208590567213</v>
       </c>
       <c r="AV3">
-        <v>3.6567797464139811</v>
+        <v>3.6567797510635582</v>
       </c>
       <c r="AW3">
-        <v>5.6988500331104506</v>
+        <v>5.6988500378719245</v>
       </c>
       <c r="AX3">
-        <v>5.556588000838885</v>
+        <v>5.5565880051674119</v>
       </c>
       <c r="AY3">
-        <v>0.94977529192161514</v>
+        <v>0.94977529963818386</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>4.5959414294679011</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.7271781315484516</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>4.4249589991270994</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.8442787864657473</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>4.1957791886671689</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.2043570552339329</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.4610391239155955</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>3.9452090559471324</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5.0325890166918024</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.4376287070017479</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.2115743469498517</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.5559908528571471</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.2096205646375324</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>2.6491084731683214</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.8752008644651483</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>8.5028593932402448</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.7011946562634641</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>2.7548912118157625</v>
+        <v>4.255488059232313</v>
       </c>
       <c r="T2">
         <v>2.4481339447948853</v>
@@ -588,55 +477,55 @@
         <v>4.4691992251059336</v>
       </c>
       <c r="AA2">
-        <v>3.0092795973163207</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>4.5277042494954856</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.4750115309886347</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.3870891059704691</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>4.6514859308567535</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.2042081176817332</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>2.5136831785597793</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>2.8150567473759347</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>5.2488608750537535</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>3.3117031275599009</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>4.2796009247277809</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>7.5746366193960899</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.9182415310098748</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.9411498109887768</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>2.3483141092472049</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.9159860809803195</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>5.466363548414007</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>2.6068159119703429</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>5.0156595988574315</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>4.750790224024894</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3.4221675229559052</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.1156399362534204</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3.9510341786329284</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>3.5961152165344799</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>6.4584287246724355</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.5510372457359347</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.05614810692785</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-1.5312294900712751</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3.739383382981126</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.3048547985902372</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4.3537757785942528</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7.4999307875612704</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.833402959652993</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3.6344550991970155</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>6.3386363225090436</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>2.9051303006494806</v>
@@ -743,55 +629,55 @@
         <v>2.5154669778603456</v>
       </c>
       <c r="AA3">
-        <v>2.8300945696256239</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.884479355008704</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.1339494779659915</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>2.7120277362721863</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>2.3777032094685868</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.9844892103590253</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.7548941203971351</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>4.7404904892973327</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-1.4667135867290622</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.9671399735004567</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>4.1873058886598082</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>4.1501718699708636</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.1267516551427712</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>7.9415298405625281</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>3.468249407394258</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>4.4171889773369815</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>3.3072077399977036</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>2.5578953775357669</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,8 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>4.595941430355726</v>
-      </c>
       <c r="C2">
-        <v>5.4792370133181159</v>
-      </c>
-      <c r="D2">
-        <v>4.4249589958904423</v>
-      </c>
-      <c r="E2">
-        <v>1.8442787841253065</v>
+        <v>5.7011946562634641</v>
       </c>
       <c r="F2">
         <v>4.1957791846222934</v>
@@ -673,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.0156595963405559</v>
+        <v>6.0617727471557927</v>
       </c>
       <c r="C3">
-        <v>4.7507902193632257</v>
+        <v>6.3386363225090436</v>
       </c>
       <c r="D3">
-        <v>3.4221675144717398</v>
+        <v>7.798938069828</v>
       </c>
       <c r="E3">
-        <v>3.1156399318228072</v>
+        <v>2.8392023425895161</v>
       </c>
       <c r="F3">
         <v>3.951034175128544</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4.595941430355726</v>
-      </c>
-      <c r="C2">
-        <v>5.4792370133181159</v>
+        <v>4.5067125282454628</v>
       </c>
       <c r="D2">
-        <v>4.4249589958904423</v>
-      </c>
-      <c r="E2">
-        <v>1.8442787841253065</v>
+        <v>2.9182415310098748</v>
       </c>
       <c r="F2">
         <v>4.1957791846222934</v>
@@ -661,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.0156595963405559</v>
+        <v>4.3537757785942528</v>
       </c>
       <c r="C3">
-        <v>4.7507902193632257</v>
+        <v>6.0617727471557927</v>
       </c>
       <c r="D3">
-        <v>3.4221675144717398</v>
+        <v>3.1267516551427712</v>
       </c>
       <c r="E3">
-        <v>1.3449135507780161</v>
+        <v>7.798938069828</v>
       </c>
       <c r="F3">
         <v>3.951034175128544</v>

--- a/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_SEE_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,136 +513,142 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>4.5959414294679011</v>
+      </c>
+      <c r="C2">
+        <v>5.4792370150598426</v>
+      </c>
+      <c r="D2">
+        <v>4.4249589991270994</v>
+      </c>
+      <c r="E2">
+        <v>1.8442787864657473</v>
+      </c>
+      <c r="F2">
+        <v>4.1957791886671689</v>
+      </c>
+      <c r="G2">
+        <v>6.4473308925504371</v>
+      </c>
+      <c r="H2">
+        <v>2.4610391239155955</v>
+      </c>
+      <c r="I2">
+        <v>3.1681363622060519</v>
+      </c>
+      <c r="J2">
+        <v>5.0325890166918024</v>
+      </c>
+      <c r="K2">
+        <v>5.4376287070017479</v>
+      </c>
+      <c r="L2">
+        <v>7.3624975774694406</v>
+      </c>
+      <c r="M2">
+        <v>5.9794649478078252</v>
+      </c>
+      <c r="N2">
         <v>4.5067125282454628</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>3.6547672358898211</v>
+      </c>
+      <c r="Q2">
+        <v>8.5028593932402448</v>
+      </c>
+      <c r="R2">
+        <v>5.7011946562634641</v>
+      </c>
+      <c r="T2">
+        <v>3.1315813539330537</v>
+      </c>
+      <c r="U2">
+        <v>6.9577611775831425</v>
+      </c>
+      <c r="V2">
+        <v>3.5636678199527037</v>
+      </c>
+      <c r="W2">
+        <v>5.697732959196796</v>
+      </c>
+      <c r="X2">
+        <v>6.4803607510058603</v>
+      </c>
+      <c r="Y2">
+        <v>1.4645557062451604</v>
+      </c>
+      <c r="Z2">
+        <v>4.4691992251059336</v>
+      </c>
+      <c r="AA2">
+        <v>3.0092795973163207</v>
+      </c>
+      <c r="AB2">
+        <v>4.5277042494954856</v>
+      </c>
+      <c r="AC2">
+        <v>6.4750115309886347</v>
+      </c>
+      <c r="AD2">
+        <v>1.3870891059704691</v>
+      </c>
+      <c r="AE2">
+        <v>4.6514859308567535</v>
+      </c>
+      <c r="AF2">
+        <v>4.2042081176817332</v>
+      </c>
+      <c r="AG2">
+        <v>2.5136831785597793</v>
+      </c>
+      <c r="AH2">
+        <v>2.8150567473759347</v>
+      </c>
+      <c r="AI2">
+        <v>5.2488608750537535</v>
+      </c>
+      <c r="AJ2">
+        <v>3.3117031275599009</v>
+      </c>
+      <c r="AK2">
+        <v>4.2796009247277809</v>
+      </c>
+      <c r="AL2">
+        <v>7.5746366193960899</v>
+      </c>
+      <c r="AM2">
         <v>2.9182415310098748</v>
       </c>
-      <c r="F2">
-        <v>4.1957791846222934</v>
-      </c>
-      <c r="G2">
-        <v>6.4473308926076642</v>
-      </c>
-      <c r="H2">
-        <v>2.4610391224896144</v>
-      </c>
-      <c r="I2">
-        <v>3.1681363587757838</v>
-      </c>
-      <c r="J2">
-        <v>5.0325890141515544</v>
-      </c>
-      <c r="K2">
-        <v>5.437628704396551</v>
-      </c>
-      <c r="L2">
-        <v>7.3624975754359472</v>
-      </c>
-      <c r="M2">
-        <v>5.9794649501634707</v>
-      </c>
-      <c r="N2">
-        <v>4.5067125267282844</v>
-      </c>
-      <c r="P2">
-        <v>3.654767236496733</v>
-      </c>
-      <c r="Q2">
-        <v>8.5028593920377578</v>
-      </c>
-      <c r="R2">
-        <v>5.7011946515882057</v>
-      </c>
-      <c r="T2">
-        <v>3.1315813524365845</v>
-      </c>
-      <c r="U2">
-        <v>6.9577611717845418</v>
-      </c>
-      <c r="V2">
-        <v>3.5636678151404344</v>
-      </c>
-      <c r="W2">
-        <v>5.6977329572101221</v>
-      </c>
-      <c r="X2">
-        <v>6.4803607506187788</v>
-      </c>
-      <c r="Y2">
-        <v>1.4645557016876296</v>
-      </c>
-      <c r="Z2">
-        <v>4.4691992195940022</v>
-      </c>
-      <c r="AA2">
-        <v>3.0092795932136465</v>
-      </c>
-      <c r="AB2">
-        <v>4.5277042419848774</v>
-      </c>
-      <c r="AC2">
-        <v>6.4750115275116631</v>
-      </c>
-      <c r="AD2">
-        <v>1.3870890970481198</v>
-      </c>
-      <c r="AE2">
-        <v>4.6514859268372195</v>
-      </c>
-      <c r="AF2">
-        <v>4.2042081141680905</v>
-      </c>
-      <c r="AG2">
-        <v>2.5136831747592288</v>
-      </c>
-      <c r="AH2">
-        <v>2.8150567437457727</v>
-      </c>
-      <c r="AI2">
-        <v>5.248860868446557</v>
-      </c>
-      <c r="AJ2">
-        <v>3.3117031244514474</v>
-      </c>
-      <c r="AK2">
-        <v>4.2796009214032615</v>
-      </c>
-      <c r="AL2">
-        <v>7.5746366160841987</v>
-      </c>
-      <c r="AM2">
-        <v>2.9182415282213485</v>
-      </c>
       <c r="AO2">
-        <v>2.3483141070044664</v>
+        <v>2.3483141092472049</v>
       </c>
       <c r="AP2">
-        <v>2.4310241066902964</v>
+        <v>2.4310241107000472</v>
       </c>
       <c r="AR2">
-        <v>2.6068159097040371</v>
+        <v>2.6068159119703429</v>
       </c>
       <c r="AS2">
-        <v>2.3190774717060445</v>
+        <v>2.3190774762975761</v>
       </c>
       <c r="AT2">
-        <v>4.8324036148425442</v>
+        <v>4.8324036198304086</v>
       </c>
       <c r="AU2">
-        <v>3.3697051545465797</v>
+        <v>3.3697051574804715</v>
       </c>
       <c r="AV2">
-        <v>3.1562411902105758</v>
+        <v>3.1562411961234398</v>
       </c>
       <c r="AW2">
-        <v>5.1033324636538309</v>
+        <v>5.1033324688487118</v>
       </c>
       <c r="AX2">
-        <v>3.0943413723407831</v>
+        <v>3.0943413789162935</v>
       </c>
       <c r="AY2">
-        <v>1.5881416168778331</v>
+        <v>1.5881416220414506</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -650,154 +656,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5.0156595988574315</v>
+      </c>
+      <c r="C3">
+        <v>4.750790224024894</v>
+      </c>
+      <c r="D3">
+        <v>3.4221675229559052</v>
+      </c>
+      <c r="E3">
+        <v>1.3449135559162282</v>
+      </c>
+      <c r="F3">
+        <v>3.9510341786329284</v>
+      </c>
+      <c r="G3">
+        <v>3.5961152165344799</v>
+      </c>
+      <c r="H3">
+        <v>6.4584287246724355</v>
+      </c>
+      <c r="I3">
+        <v>5.5510372457359347</v>
+      </c>
+      <c r="J3">
+        <v>4.05614810692785</v>
+      </c>
+      <c r="K3">
+        <v>-0.63350799138818803</v>
+      </c>
+      <c r="L3">
+        <v>3.739383382981126</v>
+      </c>
+      <c r="M3">
+        <v>7.5132768139667707</v>
+      </c>
+      <c r="N3">
         <v>4.3537757785942528</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>6.0617727471557927</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>3.833402959652993</v>
+      </c>
+      <c r="Q3">
+        <v>3.6344550991970155</v>
+      </c>
+      <c r="R3">
+        <v>6.3386363225090436</v>
+      </c>
+      <c r="S3">
+        <v>2.9051303006494806</v>
+      </c>
+      <c r="T3">
+        <v>3.3205749802712576</v>
+      </c>
+      <c r="U3">
+        <v>4.4597527716014973</v>
+      </c>
+      <c r="V3">
+        <v>2.914918096896864</v>
+      </c>
+      <c r="W3">
+        <v>4.680617768058247</v>
+      </c>
+      <c r="X3">
+        <v>7.4305580947979344</v>
+      </c>
+      <c r="Y3">
+        <v>0.91148799886645349</v>
+      </c>
+      <c r="Z3">
+        <v>2.5154669778603456</v>
+      </c>
+      <c r="AA3">
+        <v>2.8300945696256239</v>
+      </c>
+      <c r="AB3">
+        <v>2.884479355008704</v>
+      </c>
+      <c r="AC3">
+        <v>4.1339494779659915</v>
+      </c>
+      <c r="AD3">
+        <v>2.7120277362721863</v>
+      </c>
+      <c r="AE3">
+        <v>2.3777032094685868</v>
+      </c>
+      <c r="AF3">
+        <v>4.9844892103590253</v>
+      </c>
+      <c r="AG3">
+        <v>3.7548941203971351</v>
+      </c>
+      <c r="AH3">
+        <v>4.7404904892973327</v>
+      </c>
+      <c r="AI3">
+        <v>4.5056165737681528</v>
+      </c>
+      <c r="AJ3">
+        <v>2.9671399735004567</v>
+      </c>
+      <c r="AK3">
+        <v>4.1873058886598082</v>
+      </c>
+      <c r="AL3">
+        <v>4.1501718699708636</v>
+      </c>
+      <c r="AM3">
         <v>3.1267516551427712</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>7.798938069828</v>
       </c>
-      <c r="F3">
-        <v>3.951034175128544</v>
-      </c>
-      <c r="G3">
-        <v>3.5961152142449793</v>
-      </c>
-      <c r="H3">
-        <v>6.4584287225981933</v>
-      </c>
-      <c r="I3">
-        <v>5.5510372438444042</v>
-      </c>
-      <c r="J3">
-        <v>4.0561481055053168</v>
-      </c>
-      <c r="K3">
-        <v>-0.6335079936762108</v>
-      </c>
-      <c r="L3">
-        <v>3.7393833804597385</v>
-      </c>
-      <c r="M3">
-        <v>7.5132388252939695</v>
-      </c>
-      <c r="N3">
-        <v>4.3537757753501332</v>
-      </c>
-      <c r="O3">
-        <v>6.0617727441331297</v>
-      </c>
-      <c r="P3">
-        <v>3.8334029525680928</v>
-      </c>
-      <c r="Q3">
-        <v>3.634455098034767</v>
-      </c>
-      <c r="R3">
-        <v>6.3386363200222631</v>
-      </c>
-      <c r="S3">
-        <v>2.9051302997380564</v>
-      </c>
-      <c r="T3">
-        <v>3.3205749769878348</v>
-      </c>
-      <c r="U3">
-        <v>4.4597527682272782</v>
-      </c>
-      <c r="V3">
-        <v>2.9149180922064959</v>
-      </c>
-      <c r="W3">
-        <v>4.6806177656710082</v>
-      </c>
-      <c r="X3">
-        <v>7.4305580919319842</v>
-      </c>
-      <c r="Y3">
-        <v>0.91148799200908504</v>
-      </c>
-      <c r="Z3">
-        <v>2.5154669717118985</v>
-      </c>
-      <c r="AA3">
-        <v>2.8300945651800959</v>
-      </c>
-      <c r="AB3">
-        <v>2.8844793487297817</v>
-      </c>
-      <c r="AC3">
-        <v>4.1339494746109535</v>
-      </c>
-      <c r="AD3">
-        <v>2.7120277314360934</v>
-      </c>
-      <c r="AE3">
-        <v>2.3777032074239162</v>
-      </c>
-      <c r="AF3">
-        <v>4.9844892057579289</v>
-      </c>
-      <c r="AG3">
-        <v>3.7548941177326127</v>
-      </c>
-      <c r="AH3">
-        <v>4.7404904859943819</v>
-      </c>
-      <c r="AI3">
-        <v>4.5056165668146688</v>
-      </c>
-      <c r="AJ3">
-        <v>2.967139971598256</v>
-      </c>
-      <c r="AK3">
-        <v>4.1873058829901595</v>
-      </c>
-      <c r="AL3">
-        <v>4.1501718642400078</v>
-      </c>
-      <c r="AM3">
-        <v>3.1267516488462337</v>
-      </c>
-      <c r="AN3">
-        <v>7.7989380659856691</v>
-      </c>
       <c r="AO3">
-        <v>3.4682493965324959</v>
+        <v>3.468249407394258</v>
       </c>
       <c r="AP3">
-        <v>4.4171889733641638</v>
+        <v>4.4171889773369815</v>
       </c>
       <c r="AQ3">
-        <v>2.8392023415024137</v>
+        <v>2.8392023425895161</v>
       </c>
       <c r="AR3">
-        <v>2.5578953743328254</v>
+        <v>2.5578953775357669</v>
       </c>
       <c r="AS3">
-        <v>4.0003044731868176</v>
+        <v>4.0003044763299265</v>
       </c>
       <c r="AT3">
-        <v>2.5375381072201213</v>
+        <v>2.5375381148710541</v>
       </c>
       <c r="AU3">
-        <v>3.454614315167654</v>
+        <v>3.4546143113216257</v>
       </c>
       <c r="AV3">
-        <v>3.6567797464139811</v>
+        <v>3.6567797510635582</v>
       </c>
       <c r="AW3">
-        <v>5.6988500331104506</v>
+        <v>5.6988500378719245</v>
       </c>
       <c r="AX3">
-        <v>5.556588000838885</v>
+        <v>5.5565880051674119</v>
       </c>
       <c r="AY3">
-        <v>0.94977529192161514</v>
+        <v>0.94977529963818386</v>
       </c>
     </row>
   </sheetData>
